--- a/biology/Zoologie/Distichopora/Distichopora.xlsx
+++ b/biology/Zoologie/Distichopora/Distichopora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Distichopora est un genre d'hydrocoraux de la famille de Stylasteridae.
 Ce sont des hydraires coloniaux qui constituent un squelette calcaire commun. Cependant à l'instar des coraux de feu ils ne font pas partie du groupe des « vrais coraux » (Scleractinia), mais constituent un groupe semblable par convergence évolutive. La reproduction sexuée se fait via un stade méduse, mais les colonies croissent par duplication clonale. 
@@ -512,9 +524,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve des hydrocoraux de ce genre de la surface à plus de 800 m de profondeur, et ils semblent être apparus à l'Éocène[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve des hydrocoraux de ce genre de la surface à plus de 800 m de profondeur, et ils semblent être apparus à l'Éocène. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (21 février 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (21 février 2017) :
 Distichopora anceps Cairns, 1978 -- Hawaii
 Distichopora anomala Cairns, 1986 -- Antilles
 Distichopora antigua deFrance, 1826 †
